--- a/Projects/ALTRIAUS/Data/Fixture_Width_Dimensions_v3.xlsx
+++ b/Projects/ALTRIAUS/Data/Fixture_Width_Dimensions_v3.xlsx
@@ -5,13 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Fixture Width" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Conversion Table" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Header Positions" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="POS smokeless" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Flip Sign Positions" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -55,7 +55,7 @@
     <t xml:space="preserve">Number of Headers</t>
   </si>
   <si>
-    <t xml:space="preserve">Cigarette Positions</t>
+    <t xml:space="preserve">Cigarettes Positions</t>
   </si>
   <si>
     <t xml:space="preserve">Smokeless Positions</t>
@@ -210,9 +210,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -445,10 +445,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.234693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.6122448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.219387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -524,16 +523,16 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.5051020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9234693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.3163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.8826530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -614,14 +613,14 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.9795918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/ALTRIAUS/Data/Fixture_Width_Dimensions_v3.xlsx
+++ b/Projects/ALTRIAUS/Data/Fixture_Width_Dimensions_v3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Fixture Width" sheetId="1" state="visible" r:id="rId2"/>
@@ -202,17 +202,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -274,13 +274,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="0" t="n">
-        <f aca="false">SUM(C4:F4)</f>
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>9</v>
@@ -289,25 +288,25 @@
         <v>5</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="0" t="n">
         <f aca="false">SUM(C5:F5)</f>
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>9</v>
@@ -318,11 +317,11 @@
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="0" t="n">
         <f aca="false">SUM(C6:F6)</f>
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>10</v>
@@ -331,28 +330,28 @@
         <v>9</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">SUM(C7:F7)</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>9</v>
@@ -360,11 +359,11 @@
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">SUM(C8:F8)</f>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>9</v>
@@ -373,7 +372,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>9</v>
@@ -381,43 +380,64 @@
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">SUM(C9:F9)</f>
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>9</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="0" t="n">
         <f aca="false">SUM(C10:F10)</f>
+        <v>51</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <f aca="false">SUM(C11:F11)</f>
         <v>56</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="F10" s="0" t="n">
+      <c r="C11" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F11" s="0" t="n">
         <v>14</v>
       </c>
     </row>
@@ -445,9 +465,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.219387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -529,10 +550,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.8826530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.4795918367347"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -613,14 +633,14 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/ALTRIAUS/Data/Fixture_Width_Dimensions_v3.xlsx
+++ b/Projects/ALTRIAUS/Data/Fixture_Width_Dimensions_v3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Fixture Width" sheetId="1" state="visible" r:id="rId2"/>
@@ -76,7 +76,7 @@
     <t xml:space="preserve">L, C, R</t>
   </si>
   <si>
-    <t xml:space="preserve">Secondary, Menu Board, Primary</t>
+    <t xml:space="preserve">Secondary, Primary, Menu Board</t>
   </si>
   <si>
     <t xml:space="preserve">L, C1, C2, R</t>
@@ -204,15 +204,14 @@
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -465,10 +464,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -544,15 +543,16 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.4795918367347"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.9387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -639,8 +639,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.1071428571429"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/ALTRIAUS/Data/Fixture_Width_Dimensions_v3.xlsx
+++ b/Projects/ALTRIAUS/Data/Fixture_Width_Dimensions_v3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fixture Width" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">Fixture Width (ft)</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t xml:space="preserve">Smokeless Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vapor Facings</t>
   </si>
   <si>
     <t xml:space="preserve">Number of Headers</t>
@@ -210,8 +213,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -456,18 +460,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -480,6 +485,9 @@
       <c r="C1" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -491,6 +499,9 @@
       <c r="C2" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="D2" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -502,6 +513,9 @@
       <c r="C3" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="D3" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -513,6 +527,9 @@
       <c r="C4" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="D4" s="0" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -522,6 +539,9 @@
         <v>19</v>
       </c>
       <c r="C5" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" s="0" t="n">
         <v>16</v>
       </c>
     </row>
@@ -543,27 +563,27 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.9387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -571,10 +591,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -582,10 +602,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -593,10 +613,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -604,7 +624,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -612,7 +632,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -639,15 +659,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -655,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -663,7 +684,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/ALTRIAUS/Data/Fixture_Width_Dimensions_v3.xlsx
+++ b/Projects/ALTRIAUS/Data/Fixture_Width_Dimensions_v3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Fixture Width" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t xml:space="preserve">Fixture Width (ft)</t>
   </si>
@@ -58,10 +58,16 @@
     <t xml:space="preserve">Number of Headers</t>
   </si>
   <si>
-    <t xml:space="preserve">Cigarettes Positions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smokeless Positions</t>
+    <t xml:space="preserve">Cigarettes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smokeless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cigars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vapor</t>
   </si>
   <si>
     <t xml:space="preserve">C</t>
@@ -73,19 +79,31 @@
     <t xml:space="preserve">L, C</t>
   </si>
   <si>
-    <t xml:space="preserve">Primary, Menu Board</t>
+    <t xml:space="preserve">Primary, Secondary </t>
   </si>
   <si>
     <t xml:space="preserve">L, C, R</t>
   </si>
   <si>
-    <t xml:space="preserve">Secondary, Primary, Menu Board</t>
+    <t xml:space="preserve">Secondary, Primary, Tertiary</t>
   </si>
   <si>
     <t xml:space="preserve">L, C1, C2, R</t>
   </si>
   <si>
+    <t xml:space="preserve">Secondary, Primary,Primary, Tertiary</t>
+  </si>
+  <si>
     <t xml:space="preserve">L, C1, C2, C3, R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary, Primary,Primary,Primary, Tertiary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L, C1, C2, C3, C4, R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary, Primary, Primary, Primary,Primary, Tertiary</t>
   </si>
   <si>
     <t xml:space="preserve">Number of Flip Signs</t>
@@ -179,9 +197,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -213,9 +239,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -462,17 +488,16 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.7142857142857"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -561,78 +586,139 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1275510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.2040816326531"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>14</v>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>16</v>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -659,32 +745,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>21</v>
+      <c r="A1" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/ALTRIAUS/Data/Fixture_Width_Dimensions_v3.xlsx
+++ b/Projects/ALTRIAUS/Data/Fixture_Width_Dimensions_v3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Fixture Width" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t xml:space="preserve">Fixture Width (ft)</t>
   </si>
@@ -107,15 +107,6 @@
   </si>
   <si>
     <t xml:space="preserve">Number of Flip Signs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secondary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secondary, Tertiary</t>
   </si>
 </sst>
 </file>
@@ -156,19 +147,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -197,7 +181,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -208,10 +192,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -239,9 +219,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5612244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -494,10 +474,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.7142857142857"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -588,18 +569,17 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1275510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.2040816326531"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.4234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.7244897959184"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.1071428571429"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -737,40 +717,145 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.8469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6122448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.780612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>28</v>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>29</v>
+      <c r="B2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>30</v>
+      <c r="B3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
